--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3695.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3695.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.721803542757596</v>
+        <v>1.690053582191467</v>
       </c>
       <c r="B1">
-        <v>5.219316249491468</v>
+        <v>5.420165061950684</v>
       </c>
       <c r="C1">
-        <v>5.070678992330896</v>
+        <v>2.609807729721069</v>
       </c>
       <c r="D1">
-        <v>1.337706186633764</v>
+        <v>1.737192392349243</v>
       </c>
       <c r="E1">
-        <v>0.8700167819050474</v>
+        <v>1.733156323432922</v>
       </c>
     </row>
   </sheetData>
